--- a/files/fieldbook.xlsx
+++ b/files/fieldbook.xlsx
@@ -14,13 +14,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
-    <t>REQUIREMENTS</t>
-  </si>
-  <si>
     <t>rep</t>
   </si>
   <si>
-    <t>INFORMATION</t>
+    <t>REQUIREMENTS</t>
   </si>
   <si>
     <t>nacl</t>
@@ -30,6 +27,9 @@
   </si>
   <si>
     <t>seeds</t>
+  </si>
+  <si>
+    <t>INFORMATION</t>
   </si>
   <si>
     <t>D0</t>
@@ -128,10 +128,10 @@
     </font>
     <font>
       <b/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <name val="Arial"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -147,14 +147,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6B8AF"/>
-        <bgColor rgb="FFE6B8AF"/>
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFF4CCCC"/>
+        <fgColor rgb="FFE6B8AF"/>
+        <bgColor rgb="FFE6B8AF"/>
       </patternFill>
     </fill>
     <fill>
@@ -210,28 +210,28 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -328,17 +328,17 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>6</v>
@@ -4158,11 +4158,11 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">

--- a/files/fieldbook.xlsx
+++ b/files/fieldbook.xlsx
@@ -14,10 +14,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
+    <t>REQUIREMENTS</t>
+  </si>
+  <si>
     <t>rep</t>
   </si>
   <si>
-    <t>REQUIREMENTS</t>
+    <t>INFORMATION</t>
   </si>
   <si>
     <t>nacl</t>
@@ -29,13 +32,10 @@
     <t>seeds</t>
   </si>
   <si>
-    <t>INFORMATION</t>
+    <t>INSTITUTIONS</t>
   </si>
   <si>
     <t>D0</t>
-  </si>
-  <si>
-    <t>INSTITUTIONS</t>
   </si>
   <si>
     <t>D1</t>
@@ -128,10 +128,10 @@
     </font>
     <font>
       <b/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <name val="Arial"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -147,14 +147,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFF4CCCC"/>
+        <fgColor rgb="FFE6B8AF"/>
+        <bgColor rgb="FFE6B8AF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6B8AF"/>
-        <bgColor rgb="FFE6B8AF"/>
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -210,29 +210,29 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -328,20 +328,20 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="E1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>8</v>
@@ -375,16 +375,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="A2" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="7">
         <v>25.0</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>50.0</v>
       </c>
       <c r="E2" s="9">
@@ -422,16 +422,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="A3" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="7">
         <v>25.0</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>50.0</v>
       </c>
       <c r="E3" s="9">
@@ -469,16 +469,16 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="A4" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="7">
         <v>25.0</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>50.0</v>
       </c>
       <c r="E4" s="9">
@@ -516,16 +516,16 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>4.0</v>
       </c>
-      <c r="B5" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="B5" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="7">
         <v>25.0</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>50.0</v>
       </c>
       <c r="E5" s="9">
@@ -563,16 +563,16 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B6" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="A6" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="7">
         <v>30.0</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>50.0</v>
       </c>
       <c r="E6" s="9">
@@ -610,16 +610,16 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B7" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="A7" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="7">
         <v>30.0</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>50.0</v>
       </c>
       <c r="E7" s="9">
@@ -657,16 +657,16 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B8" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="A8" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="7">
         <v>30.0</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>50.0</v>
       </c>
       <c r="E8" s="9">
@@ -704,16 +704,16 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>4.0</v>
       </c>
-      <c r="B9" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="C9" s="8">
+      <c r="B9" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="7">
         <v>30.0</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>50.0</v>
       </c>
       <c r="E9" s="9">
@@ -751,16 +751,16 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B10" s="8">
+      <c r="A10" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B10" s="7">
         <v>0.5</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>25.0</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>50.0</v>
       </c>
       <c r="E10" s="9">
@@ -798,16 +798,16 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B11" s="8">
+      <c r="A11" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B11" s="7">
         <v>0.5</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>25.0</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>50.0</v>
       </c>
       <c r="E11" s="9">
@@ -845,16 +845,16 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B12" s="8">
+      <c r="A12" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="B12" s="7">
         <v>0.5</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>25.0</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>50.0</v>
       </c>
       <c r="E12" s="9">
@@ -892,16 +892,16 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>4.0</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>0.5</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>25.0</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>50.0</v>
       </c>
       <c r="E13" s="9">
@@ -939,16 +939,16 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B14" s="8">
+      <c r="A14" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B14" s="7">
         <v>0.5</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>30.0</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>50.0</v>
       </c>
       <c r="E14" s="9">
@@ -986,16 +986,16 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="A15" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B15" s="7">
         <v>0.5</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>30.0</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>50.0</v>
       </c>
       <c r="E15" s="9">
@@ -1033,16 +1033,16 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B16" s="8">
+      <c r="A16" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="B16" s="7">
         <v>0.5</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>30.0</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>50.0</v>
       </c>
       <c r="E16" s="9">
@@ -1080,16 +1080,16 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>4.0</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>0.5</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>30.0</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>50.0</v>
       </c>
       <c r="E17" s="9">
@@ -1127,16 +1127,16 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B18" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C18" s="8">
+      <c r="A18" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="C18" s="7">
         <v>25.0</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>50.0</v>
       </c>
       <c r="E18" s="9">
@@ -1174,16 +1174,16 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B19" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C19" s="8">
+      <c r="A19" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="C19" s="7">
         <v>25.0</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>50.0</v>
       </c>
       <c r="E19" s="9">
@@ -1221,16 +1221,16 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B20" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C20" s="8">
+      <c r="A20" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="C20" s="7">
         <v>25.0</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>50.0</v>
       </c>
       <c r="E20" s="9">
@@ -1268,16 +1268,16 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>4.0</v>
       </c>
-      <c r="B21" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C21" s="8">
+      <c r="B21" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="C21" s="7">
         <v>25.0</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>50.0</v>
       </c>
       <c r="E21" s="9">
@@ -1315,16 +1315,16 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B22" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C22" s="8">
+      <c r="A22" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="C22" s="7">
         <v>30.0</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>50.0</v>
       </c>
       <c r="E22" s="9">
@@ -1362,16 +1362,16 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B23" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C23" s="8">
+      <c r="A23" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="C23" s="7">
         <v>30.0</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>50.0</v>
       </c>
       <c r="E23" s="9">
@@ -1409,16 +1409,16 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B24" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C24" s="8">
+      <c r="A24" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="C24" s="7">
         <v>30.0</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>50.0</v>
       </c>
       <c r="E24" s="9">
@@ -1456,16 +1456,16 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <v>4.0</v>
       </c>
-      <c r="B25" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C25" s="8">
+      <c r="B25" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="C25" s="7">
         <v>30.0</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>50.0</v>
       </c>
       <c r="E25" s="9">
@@ -1503,16 +1503,16 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B26" s="8">
+      <c r="A26" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B26" s="7">
         <v>1.5</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>25.0</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>50.0</v>
       </c>
       <c r="E26" s="9">
@@ -1550,16 +1550,16 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B27" s="8">
+      <c r="A27" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B27" s="7">
         <v>1.5</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>25.0</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>50.0</v>
       </c>
       <c r="E27" s="9">
@@ -1597,16 +1597,16 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B28" s="8">
+      <c r="A28" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="B28" s="7">
         <v>1.5</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>25.0</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>50.0</v>
       </c>
       <c r="E28" s="9">
@@ -1644,16 +1644,16 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="8">
+      <c r="A29" s="7">
         <v>4.0</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>1.5</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>25.0</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>50.0</v>
       </c>
       <c r="E29" s="9">
@@ -1691,16 +1691,16 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B30" s="8">
+      <c r="A30" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B30" s="7">
         <v>1.5</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>30.0</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>50.0</v>
       </c>
       <c r="E30" s="9">
@@ -1738,16 +1738,16 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B31" s="8">
+      <c r="A31" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B31" s="7">
         <v>1.5</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>30.0</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>50.0</v>
       </c>
       <c r="E31" s="9">
@@ -1785,16 +1785,16 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B32" s="8">
+      <c r="A32" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="B32" s="7">
         <v>1.5</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>30.0</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>50.0</v>
       </c>
       <c r="E32" s="9">
@@ -1832,16 +1832,16 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="8">
+      <c r="A33" s="7">
         <v>4.0</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>1.5</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>30.0</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>50.0</v>
       </c>
       <c r="E33" s="9">
@@ -1879,16 +1879,16 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B34" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="C34" s="8">
+      <c r="A34" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B34" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="C34" s="7">
         <v>25.0</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>50.0</v>
       </c>
       <c r="E34" s="9">
@@ -1926,16 +1926,16 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B35" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="C35" s="8">
+      <c r="A35" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B35" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="C35" s="7">
         <v>25.0</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>50.0</v>
       </c>
       <c r="E35" s="9">
@@ -1973,16 +1973,16 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B36" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="C36" s="8">
+      <c r="A36" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="B36" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="C36" s="7">
         <v>25.0</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>50.0</v>
       </c>
       <c r="E36" s="9">
@@ -2020,16 +2020,16 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="8">
+      <c r="A37" s="7">
         <v>4.0</v>
       </c>
-      <c r="B37" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="C37" s="8">
+      <c r="B37" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="C37" s="7">
         <v>25.0</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <v>50.0</v>
       </c>
       <c r="E37" s="9">
@@ -2067,16 +2067,16 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B38" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="C38" s="8">
+      <c r="A38" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B38" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="C38" s="7">
         <v>30.0</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>50.0</v>
       </c>
       <c r="E38" s="9">
@@ -2114,16 +2114,16 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B39" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="C39" s="8">
+      <c r="A39" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B39" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="C39" s="7">
         <v>30.0</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <v>50.0</v>
       </c>
       <c r="E39" s="9">
@@ -2161,16 +2161,16 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B40" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="C40" s="8">
+      <c r="A40" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="B40" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="C40" s="7">
         <v>30.0</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="7">
         <v>50.0</v>
       </c>
       <c r="E40" s="9">
@@ -2208,16 +2208,16 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="8">
+      <c r="A41" s="7">
         <v>4.0</v>
       </c>
-      <c r="B41" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="C41" s="8">
+      <c r="B41" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="C41" s="7">
         <v>30.0</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="7">
         <v>50.0</v>
       </c>
       <c r="E41" s="9">
@@ -2255,16 +2255,16 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B42" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="C42" s="8">
+      <c r="A42" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C42" s="7">
         <v>35.0</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="7">
         <v>50.0</v>
       </c>
       <c r="E42" s="9">
@@ -2302,16 +2302,16 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B43" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="C43" s="8">
+      <c r="A43" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C43" s="7">
         <v>35.0</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <v>50.0</v>
       </c>
       <c r="E43" s="9">
@@ -2349,16 +2349,16 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B44" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="C44" s="8">
+      <c r="A44" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C44" s="7">
         <v>35.0</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="7">
         <v>50.0</v>
       </c>
       <c r="E44" s="9">
@@ -2396,16 +2396,16 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="8">
+      <c r="A45" s="7">
         <v>4.0</v>
       </c>
-      <c r="B45" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="C45" s="8">
+      <c r="B45" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C45" s="7">
         <v>35.0</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="7">
         <v>50.0</v>
       </c>
       <c r="E45" s="9">
@@ -2443,16 +2443,16 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B46" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="C46" s="8">
+      <c r="A46" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B46" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C46" s="7">
         <v>40.0</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="7">
         <v>50.0</v>
       </c>
       <c r="E46" s="9">
@@ -2490,16 +2490,16 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B47" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="C47" s="8">
+      <c r="A47" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B47" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C47" s="7">
         <v>40.0</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="7">
         <v>50.0</v>
       </c>
       <c r="E47" s="9">
@@ -2537,16 +2537,16 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B48" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="C48" s="8">
+      <c r="A48" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C48" s="7">
         <v>40.0</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <v>50.0</v>
       </c>
       <c r="E48" s="9">
@@ -2584,16 +2584,16 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="8">
+      <c r="A49" s="7">
         <v>4.0</v>
       </c>
-      <c r="B49" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="C49" s="8">
+      <c r="B49" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C49" s="7">
         <v>40.0</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="7">
         <v>50.0</v>
       </c>
       <c r="E49" s="9">
@@ -2631,16 +2631,16 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B50" s="8">
+      <c r="A50" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B50" s="7">
         <v>0.5</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="7">
         <v>35.0</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="7">
         <v>50.0</v>
       </c>
       <c r="E50" s="9">
@@ -2678,16 +2678,16 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B51" s="8">
+      <c r="A51" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B51" s="7">
         <v>0.5</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="7">
         <v>35.0</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="7">
         <v>50.0</v>
       </c>
       <c r="E51" s="9">
@@ -2725,16 +2725,16 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B52" s="8">
+      <c r="A52" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="B52" s="7">
         <v>0.5</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="7">
         <v>35.0</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="7">
         <v>50.0</v>
       </c>
       <c r="E52" s="9">
@@ -2772,16 +2772,16 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="8">
+      <c r="A53" s="7">
         <v>4.0</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="7">
         <v>0.5</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="7">
         <v>35.0</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="7">
         <v>50.0</v>
       </c>
       <c r="E53" s="9">
@@ -2819,16 +2819,16 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B54" s="8">
+      <c r="A54" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B54" s="7">
         <v>0.5</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="7">
         <v>40.0</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="7">
         <v>50.0</v>
       </c>
       <c r="E54" s="9">
@@ -2866,16 +2866,16 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B55" s="8">
+      <c r="A55" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B55" s="7">
         <v>0.5</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="7">
         <v>40.0</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="7">
         <v>50.0</v>
       </c>
       <c r="E55" s="9">
@@ -2913,16 +2913,16 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B56" s="8">
+      <c r="A56" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="B56" s="7">
         <v>0.5</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="7">
         <v>40.0</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="7">
         <v>50.0</v>
       </c>
       <c r="E56" s="9">
@@ -2960,16 +2960,16 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="8">
+      <c r="A57" s="7">
         <v>4.0</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="7">
         <v>0.5</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="7">
         <v>40.0</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="7">
         <v>50.0</v>
       </c>
       <c r="E57" s="9">
@@ -3007,16 +3007,16 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B58" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C58" s="8">
+      <c r="A58" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B58" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="C58" s="7">
         <v>35.0</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="7">
         <v>50.0</v>
       </c>
       <c r="E58" s="9">
@@ -3054,16 +3054,16 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B59" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C59" s="8">
+      <c r="A59" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B59" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="C59" s="7">
         <v>35.0</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="7">
         <v>50.0</v>
       </c>
       <c r="E59" s="9">
@@ -3101,16 +3101,16 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B60" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C60" s="8">
+      <c r="A60" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="B60" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="C60" s="7">
         <v>35.0</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="7">
         <v>50.0</v>
       </c>
       <c r="E60" s="9">
@@ -3148,16 +3148,16 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="8">
+      <c r="A61" s="7">
         <v>4.0</v>
       </c>
-      <c r="B61" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C61" s="8">
+      <c r="B61" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="C61" s="7">
         <v>35.0</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="7">
         <v>50.0</v>
       </c>
       <c r="E61" s="9">
@@ -3195,16 +3195,16 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B62" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C62" s="8">
+      <c r="A62" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B62" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="C62" s="7">
         <v>40.0</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="7">
         <v>50.0</v>
       </c>
       <c r="E62" s="9">
@@ -3242,16 +3242,16 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B63" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C63" s="8">
+      <c r="A63" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B63" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="C63" s="7">
         <v>40.0</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="7">
         <v>50.0</v>
       </c>
       <c r="E63" s="9">
@@ -3289,16 +3289,16 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B64" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C64" s="8">
+      <c r="A64" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="B64" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="C64" s="7">
         <v>40.0</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="7">
         <v>50.0</v>
       </c>
       <c r="E64" s="9">
@@ -3336,16 +3336,16 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="8">
+      <c r="A65" s="7">
         <v>4.0</v>
       </c>
-      <c r="B65" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C65" s="8">
+      <c r="B65" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="C65" s="7">
         <v>40.0</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="7">
         <v>50.0</v>
       </c>
       <c r="E65" s="9">
@@ -3383,16 +3383,16 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B66" s="8">
+      <c r="A66" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B66" s="7">
         <v>1.5</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="7">
         <v>35.0</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="7">
         <v>50.0</v>
       </c>
       <c r="E66" s="9">
@@ -3430,16 +3430,16 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B67" s="8">
+      <c r="A67" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B67" s="7">
         <v>1.5</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="7">
         <v>35.0</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="7">
         <v>50.0</v>
       </c>
       <c r="E67" s="9">
@@ -3477,16 +3477,16 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B68" s="8">
+      <c r="A68" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="B68" s="7">
         <v>1.5</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="7">
         <v>35.0</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68" s="7">
         <v>50.0</v>
       </c>
       <c r="E68" s="9">
@@ -3524,16 +3524,16 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="8">
+      <c r="A69" s="7">
         <v>4.0</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="7">
         <v>1.5</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="7">
         <v>35.0</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="7">
         <v>50.0</v>
       </c>
       <c r="E69" s="9">
@@ -3571,16 +3571,16 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B70" s="8">
+      <c r="A70" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B70" s="7">
         <v>1.5</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="7">
         <v>40.0</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70" s="7">
         <v>50.0</v>
       </c>
       <c r="E70" s="9">
@@ -3618,16 +3618,16 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B71" s="8">
+      <c r="A71" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B71" s="7">
         <v>1.5</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="7">
         <v>40.0</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="7">
         <v>50.0</v>
       </c>
       <c r="E71" s="9">
@@ -3665,16 +3665,16 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B72" s="8">
+      <c r="A72" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="B72" s="7">
         <v>1.5</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="7">
         <v>40.0</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D72" s="7">
         <v>50.0</v>
       </c>
       <c r="E72" s="9">
@@ -3712,16 +3712,16 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="8">
+      <c r="A73" s="7">
         <v>4.0</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="7">
         <v>1.5</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="7">
         <v>40.0</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="7">
         <v>50.0</v>
       </c>
       <c r="E73" s="9">
@@ -3759,16 +3759,16 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B74" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="C74" s="8">
+      <c r="A74" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B74" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="C74" s="7">
         <v>35.0</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74" s="7">
         <v>50.0</v>
       </c>
       <c r="E74" s="9">
@@ -3806,16 +3806,16 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B75" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="C75" s="8">
+      <c r="A75" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B75" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="C75" s="7">
         <v>35.0</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="7">
         <v>50.0</v>
       </c>
       <c r="E75" s="9">
@@ -3853,16 +3853,16 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B76" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="C76" s="8">
+      <c r="A76" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="B76" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="C76" s="7">
         <v>35.0</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D76" s="7">
         <v>50.0</v>
       </c>
       <c r="E76" s="9">
@@ -3900,16 +3900,16 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="8">
+      <c r="A77" s="7">
         <v>4.0</v>
       </c>
-      <c r="B77" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="C77" s="8">
+      <c r="B77" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="C77" s="7">
         <v>35.0</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77" s="7">
         <v>50.0</v>
       </c>
       <c r="E77" s="9">
@@ -3947,16 +3947,16 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B78" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="C78" s="8">
+      <c r="A78" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B78" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="C78" s="7">
         <v>40.0</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D78" s="7">
         <v>50.0</v>
       </c>
       <c r="E78" s="9">
@@ -3994,16 +3994,16 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B79" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="C79" s="8">
+      <c r="A79" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B79" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="C79" s="7">
         <v>40.0</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D79" s="7">
         <v>50.0</v>
       </c>
       <c r="E79" s="9">
@@ -4041,16 +4041,16 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B80" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="C80" s="8">
+      <c r="A80" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="B80" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="C80" s="7">
         <v>40.0</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D80" s="7">
         <v>50.0</v>
       </c>
       <c r="E80" s="9">
@@ -4088,16 +4088,16 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="8">
+      <c r="A81" s="7">
         <v>4.0</v>
       </c>
-      <c r="B81" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="C81" s="8">
+      <c r="B81" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="C81" s="7">
         <v>40.0</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D81" s="7">
         <v>50.0</v>
       </c>
       <c r="E81" s="9">
@@ -4158,18 +4158,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>5</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4177,7 +4177,7 @@
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4185,7 +4185,7 @@
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="8">
         <v>2015.0</v>
       </c>
     </row>
@@ -4193,7 +4193,7 @@
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4201,7 +4201,7 @@
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       <c r="A7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4217,7 +4217,7 @@
       <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4225,7 +4225,7 @@
       <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4233,7 +4233,7 @@
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>33</v>
       </c>
     </row>
